--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_磐石组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_磐石组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -366,6 +366,10 @@
   </si>
   <si>
     <t>孙苏文</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1383,7 @@
   <dimension ref="A1:X168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>72</v>
